--- a/resources/experiment 1/predictions/single/RandomForestRegressor/incidence/Edema macular diabético (INC).xlsx
+++ b/resources/experiment 1/predictions/single/RandomForestRegressor/incidence/Edema macular diabético (INC).xlsx
@@ -452,783 +452,783 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>49.56681982942425</v>
+        <v>49.52770149253723</v>
       </c>
       <c r="B2" t="n">
-        <v>33.93144761904764</v>
+        <v>33.71200000000002</v>
       </c>
       <c r="C2" t="n">
-        <v>65.37759999999997</v>
+        <v>65.59999999999998</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2.239500102661292</v>
+        <v>2.228716417910446</v>
       </c>
       <c r="B3" t="n">
-        <v>0.9572295763060465</v>
+        <v>0.8680000000000001</v>
       </c>
       <c r="C3" t="n">
-        <v>3.867690476190475</v>
+        <v>3.831999999999998</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3.947085974887453</v>
+        <v>3.93725373134327</v>
       </c>
       <c r="B4" t="n">
-        <v>1.932997619047621</v>
+        <v>1.867999999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>6.485412698412697</v>
+        <v>6.480000000000001</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2.817419752966757</v>
+        <v>2.818169154228847</v>
       </c>
       <c r="B5" t="n">
-        <v>1.11612086834734</v>
+        <v>1.02</v>
       </c>
       <c r="C5" t="n">
-        <v>4.854185214785215</v>
+        <v>4.743999999999998</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>12.74216965174128</v>
+        <v>12.81954228855721</v>
       </c>
       <c r="B6" t="n">
-        <v>6.936966666666665</v>
+        <v>6.940000000000003</v>
       </c>
       <c r="C6" t="n">
-        <v>19.33556666666666</v>
+        <v>19.05199999999999</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>42.90168988391377</v>
+        <v>42.92593034825866</v>
       </c>
       <c r="B7" t="n">
-        <v>26.38480000000001</v>
+        <v>26.28400000000001</v>
       </c>
       <c r="C7" t="n">
-        <v>59.24800000000004</v>
+        <v>59.09200000000003</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>71.30537575219131</v>
+        <v>71.20316417910445</v>
       </c>
       <c r="B8" t="n">
-        <v>54.54502142857146</v>
+        <v>54.96400000000001</v>
       </c>
       <c r="C8" t="n">
-        <v>84.29611904761902</v>
+        <v>84.50799999999995</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>11.23124378109452</v>
+        <v>11.15862686567164</v>
       </c>
       <c r="B9" t="n">
-        <v>5.756233333333337</v>
+        <v>5.591999999999996</v>
       </c>
       <c r="C9" t="n">
-        <v>17.6236</v>
+        <v>17.52800000000001</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>72.71763052516843</v>
+        <v>72.41432835820885</v>
       </c>
       <c r="B10" t="n">
-        <v>56.27818015823567</v>
+        <v>56.69600000000002</v>
       </c>
       <c r="C10" t="n">
-        <v>85.69385014430014</v>
+        <v>85.33999999999996</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>64.14511314638924</v>
+        <v>64.06805970149244</v>
       </c>
       <c r="B11" t="n">
-        <v>46.55247619047617</v>
+        <v>46.41199999999999</v>
       </c>
       <c r="C11" t="n">
-        <v>77.60260940170943</v>
+        <v>78.23600000000002</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>32.83774626865663</v>
+        <v>32.87078606965166</v>
       </c>
       <c r="B12" t="n">
-        <v>19.31759999999998</v>
+        <v>19.136</v>
       </c>
       <c r="C12" t="n">
-        <v>45.72799999999999</v>
+        <v>46.068</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>73.86277007431565</v>
+        <v>73.72121393034816</v>
       </c>
       <c r="B13" t="n">
-        <v>57.47836280747066</v>
+        <v>56.83200000000002</v>
       </c>
       <c r="C13" t="n">
-        <v>85.87591113977147</v>
+        <v>85.84399999999998</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>70.1646757069629</v>
+        <v>69.96911442786059</v>
       </c>
       <c r="B14" t="n">
-        <v>53.662137316605</v>
+        <v>53.672</v>
       </c>
       <c r="C14" t="n">
-        <v>82.88410952380953</v>
+        <v>82.20799999999997</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>3.369361197619398</v>
+        <v>3.409711442786061</v>
       </c>
       <c r="B15" t="n">
-        <v>1.481198817848818</v>
+        <v>1.588</v>
       </c>
       <c r="C15" t="n">
-        <v>5.47352987012987</v>
+        <v>5.504</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>12.80893582089551</v>
+        <v>12.90794029850745</v>
       </c>
       <c r="B16" t="n">
-        <v>6.997833333333329</v>
+        <v>7.084000000000004</v>
       </c>
       <c r="C16" t="n">
-        <v>19.33464761904761</v>
+        <v>19.17999999999999</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>32.28152238805963</v>
+        <v>32.21554228855717</v>
       </c>
       <c r="B17" t="n">
-        <v>19.48559999999998</v>
+        <v>19.58800000000001</v>
       </c>
       <c r="C17" t="n">
-        <v>44.62333333333331</v>
+        <v>44.99599999999997</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>3.94187536128878</v>
+        <v>3.93725373134327</v>
       </c>
       <c r="B18" t="n">
-        <v>1.840100000000001</v>
+        <v>1.867999999999999</v>
       </c>
       <c r="C18" t="n">
-        <v>6.485412698412697</v>
+        <v>6.480000000000001</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>66.46850851873377</v>
+        <v>66.32865671641787</v>
       </c>
       <c r="B19" t="n">
-        <v>49.13957014652014</v>
+        <v>48.89200000000002</v>
       </c>
       <c r="C19" t="n">
-        <v>79.53408717948719</v>
+        <v>79.42800000000001</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>15.06406218905472</v>
+        <v>14.88171144278607</v>
       </c>
       <c r="B20" t="n">
-        <v>8.946338888888889</v>
+        <v>8.815999999999997</v>
       </c>
       <c r="C20" t="n">
-        <v>21.44512424242425</v>
+        <v>21.67600000000001</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>5.936894073643321</v>
+        <v>5.877333333333326</v>
       </c>
       <c r="B21" t="n">
-        <v>3.047896248196249</v>
+        <v>3.04</v>
       </c>
       <c r="C21" t="n">
-        <v>9.511352380952383</v>
+        <v>9.612000000000005</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>74.10055556771715</v>
+        <v>74.04875621890537</v>
       </c>
       <c r="B22" t="n">
-        <v>57.85419111605077</v>
+        <v>57.96800000000004</v>
       </c>
       <c r="C22" t="n">
-        <v>86.8613483267883</v>
+        <v>86.77200000000005</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>3.587163310431958</v>
+        <v>3.641870646766156</v>
       </c>
       <c r="B23" t="n">
-        <v>1.558121184371184</v>
+        <v>1.568</v>
       </c>
       <c r="C23" t="n">
-        <v>6.202914285714285</v>
+        <v>6.183999999999998</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>12.78148922056383</v>
+        <v>12.93397014925372</v>
       </c>
       <c r="B24" t="n">
-        <v>6.945666666666661</v>
+        <v>7.064000000000004</v>
       </c>
       <c r="C24" t="n">
-        <v>19.7242857142857</v>
+        <v>19.31999999999998</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>10.0329435323383</v>
+        <v>9.970885572139288</v>
       </c>
       <c r="B25" t="n">
-        <v>5.338533333333337</v>
+        <v>5.459999999999999</v>
       </c>
       <c r="C25" t="n">
-        <v>15.5918</v>
+        <v>15.58399999999999</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>5.960005433510646</v>
+        <v>5.951641791044763</v>
       </c>
       <c r="B26" t="n">
-        <v>3.022184343434343</v>
+        <v>3.044</v>
       </c>
       <c r="C26" t="n">
-        <v>9.285085714285715</v>
+        <v>9.408000000000007</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>74.4556726721101</v>
+        <v>74.73158208955222</v>
       </c>
       <c r="B27" t="n">
-        <v>58.75430669784403</v>
+        <v>58.96400000000004</v>
       </c>
       <c r="C27" t="n">
-        <v>86.56510462737224</v>
+        <v>86.676</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>46.70648971807618</v>
+        <v>46.79265671641782</v>
       </c>
       <c r="B28" t="n">
-        <v>30.36379999999997</v>
+        <v>30.51999999999999</v>
       </c>
       <c r="C28" t="n">
-        <v>61.8332</v>
+        <v>61.62</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>3.763648542999277</v>
+        <v>3.726805970149245</v>
       </c>
       <c r="B29" t="n">
-        <v>1.610360866910866</v>
+        <v>1.671999999999999</v>
       </c>
       <c r="C29" t="n">
-        <v>6.414780952380952</v>
+        <v>6.403999999999999</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>30.35570978441116</v>
+        <v>30.51824875621877</v>
       </c>
       <c r="B30" t="n">
-        <v>18.39826666666668</v>
+        <v>18.47200000000001</v>
       </c>
       <c r="C30" t="n">
-        <v>43.49133333333333</v>
+        <v>43.58400000000002</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>69.50245563847419</v>
+        <v>69.41054726368156</v>
       </c>
       <c r="B31" t="n">
-        <v>52.46720097418925</v>
+        <v>52.02799999999996</v>
       </c>
       <c r="C31" t="n">
-        <v>82.47924603174603</v>
+        <v>82.49999999999993</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>71.00949270480754</v>
+        <v>70.955462686567</v>
       </c>
       <c r="B32" t="n">
-        <v>54.07044668517275</v>
+        <v>53.59200000000003</v>
       </c>
       <c r="C32" t="n">
-        <v>84.59332559597264</v>
+        <v>84.15999999999994</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>70.20331981973239</v>
+        <v>70.11797014925369</v>
       </c>
       <c r="B33" t="n">
-        <v>54.00025376682145</v>
+        <v>54.25999999999996</v>
       </c>
       <c r="C33" t="n">
-        <v>83.13713333333334</v>
+        <v>82.94399999999996</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>54.27149585406286</v>
+        <v>54.19797014925361</v>
       </c>
       <c r="B34" t="n">
-        <v>37.64799999999997</v>
+        <v>37.7</v>
       </c>
       <c r="C34" t="n">
-        <v>71.99500000000002</v>
+        <v>71.98</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>13.58694237542445</v>
+        <v>13.53418905472635</v>
       </c>
       <c r="B35" t="n">
-        <v>7.514404761904756</v>
+        <v>7.559999999999997</v>
       </c>
       <c r="C35" t="n">
-        <v>20.80961471861471</v>
+        <v>20.91999999999999</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>43.19541293532334</v>
+        <v>43.21424875621883</v>
       </c>
       <c r="B36" t="n">
-        <v>27.18080000000001</v>
+        <v>27.364</v>
       </c>
       <c r="C36" t="n">
-        <v>59.61000000000003</v>
+        <v>59.48400000000004</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>6.554763444681345</v>
+        <v>6.615980099502476</v>
       </c>
       <c r="B37" t="n">
-        <v>3.505933333333331</v>
+        <v>3.464000000000002</v>
       </c>
       <c r="C37" t="n">
-        <v>10.26895238095238</v>
+        <v>10.308</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>71.83411262805731</v>
+        <v>71.42348258706454</v>
       </c>
       <c r="B38" t="n">
-        <v>55.84067282260224</v>
+        <v>56.15600000000001</v>
       </c>
       <c r="C38" t="n">
-        <v>84.25948571428573</v>
+        <v>84.25599999999999</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>33.44320895522385</v>
+        <v>33.63709452736317</v>
       </c>
       <c r="B39" t="n">
-        <v>20.58399999999997</v>
+        <v>20.71200000000002</v>
       </c>
       <c r="C39" t="n">
-        <v>48.66399999999996</v>
+        <v>48.63199999999996</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>4.983824942746574</v>
+        <v>5.022288557213923</v>
       </c>
       <c r="B40" t="n">
-        <v>2.363081746031749</v>
+        <v>2.396000000000002</v>
       </c>
       <c r="C40" t="n">
-        <v>7.579144444444442</v>
+        <v>7.632000000000004</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>39.56704477611931</v>
+        <v>39.59781094527357</v>
       </c>
       <c r="B41" t="n">
-        <v>24.63083333333334</v>
+        <v>24.42799999999999</v>
       </c>
       <c r="C41" t="n">
-        <v>55.18399999999999</v>
+        <v>55.27999999999999</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>65.6102620379344</v>
+        <v>65.75540298507458</v>
       </c>
       <c r="B42" t="n">
-        <v>48.60820816960816</v>
+        <v>48.41999999999998</v>
       </c>
       <c r="C42" t="n">
-        <v>78.98529627039629</v>
+        <v>79.33599999999997</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>30.35083416252062</v>
+        <v>30.51824875621877</v>
       </c>
       <c r="B43" t="n">
-        <v>18.44426666666668</v>
+        <v>18.47200000000001</v>
       </c>
       <c r="C43" t="n">
-        <v>43.46933333333332</v>
+        <v>43.58400000000002</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>56.50402966121754</v>
+        <v>56.45836815920387</v>
       </c>
       <c r="B44" t="n">
-        <v>39.73466666666663</v>
+        <v>39.06000000000002</v>
       </c>
       <c r="C44" t="n">
-        <v>71.82506666666664</v>
+        <v>71.77199999999998</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>66.27592983100361</v>
+        <v>67.29490547263669</v>
       </c>
       <c r="B45" t="n">
-        <v>49.81749131979132</v>
+        <v>50.20400000000004</v>
       </c>
       <c r="C45" t="n">
-        <v>81.53066666666673</v>
+        <v>81.62000000000006</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>67.04012330016576</v>
+        <v>66.99090547263683</v>
       </c>
       <c r="B46" t="n">
-        <v>49.41896825396829</v>
+        <v>49.488</v>
       </c>
       <c r="C46" t="n">
-        <v>81.23518095238093</v>
+        <v>81.22799999999992</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>74.89618893652838</v>
+        <v>74.73962189054706</v>
       </c>
       <c r="B47" t="n">
-        <v>58.41978464505902</v>
+        <v>58.09600000000001</v>
       </c>
       <c r="C47" t="n">
-        <v>86.95647241133122</v>
+        <v>86.87600000000006</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>33.12763184079591</v>
+        <v>32.61691542288551</v>
       </c>
       <c r="B48" t="n">
-        <v>19.48159999999998</v>
+        <v>19.36800000000001</v>
       </c>
       <c r="C48" t="n">
-        <v>45.54133333333334</v>
+        <v>45.768</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>4.42765805496327</v>
+        <v>4.453572139303466</v>
       </c>
       <c r="B49" t="n">
-        <v>2.039755555555556</v>
+        <v>2.04</v>
       </c>
       <c r="C49" t="n">
-        <v>7.163227561327562</v>
+        <v>7.06</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>6.509686827765924</v>
+        <v>6.535621890547255</v>
       </c>
       <c r="B50" t="n">
-        <v>3.489219047619047</v>
+        <v>3.416000000000001</v>
       </c>
       <c r="C50" t="n">
-        <v>10.21335238095238</v>
+        <v>10.24</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>2.239500102661292</v>
+        <v>2.217273631840794</v>
       </c>
       <c r="B51" t="n">
-        <v>0.9075067102831804</v>
+        <v>0.852</v>
       </c>
       <c r="C51" t="n">
-        <v>3.859690476190474</v>
+        <v>3.811999999999998</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>65.16863147358434</v>
+        <v>65.19410945273624</v>
       </c>
       <c r="B52" t="n">
-        <v>47.0294</v>
+        <v>46.66399999999998</v>
       </c>
       <c r="C52" t="n">
-        <v>79.29973333333329</v>
+        <v>79.35599999999994</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>32.85315422885566</v>
+        <v>33.71004975124373</v>
       </c>
       <c r="B53" t="n">
-        <v>20.80399999999997</v>
+        <v>21.06000000000001</v>
       </c>
       <c r="C53" t="n">
-        <v>48.32399999999996</v>
+        <v>48.82399999999996</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>3.365664680206464</v>
+        <v>3.38855721393034</v>
       </c>
       <c r="B54" t="n">
-        <v>1.527955167055167</v>
+        <v>1.58</v>
       </c>
       <c r="C54" t="n">
-        <v>5.485105627705629</v>
+        <v>5.504</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>5.980724338983286</v>
+        <v>6.004875621890537</v>
       </c>
       <c r="B55" t="n">
-        <v>3.082829581529582</v>
+        <v>3.148</v>
       </c>
       <c r="C55" t="n">
-        <v>9.29295238095238</v>
+        <v>9.120000000000006</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>69.52815097133372</v>
+        <v>69.53665671641784</v>
       </c>
       <c r="B56" t="n">
-        <v>53.30130631329458</v>
+        <v>53.03999999999996</v>
       </c>
       <c r="C56" t="n">
-        <v>82.6588365079365</v>
+        <v>82.06399999999994</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>70.99051426367984</v>
+        <v>70.93540298507448</v>
       </c>
       <c r="B57" t="n">
-        <v>54.01359998285546</v>
+        <v>53.52000000000002</v>
       </c>
       <c r="C57" t="n">
-        <v>84.55478014142719</v>
+        <v>84.20799999999994</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>6.542874555792456</v>
+        <v>6.502965174129343</v>
       </c>
       <c r="B58" t="n">
-        <v>3.454409523809521</v>
+        <v>3.428000000000003</v>
       </c>
       <c r="C58" t="n">
-        <v>10.1928</v>
+        <v>10.152</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>61.91531393034815</v>
+        <v>61.97032835820882</v>
       </c>
       <c r="B59" t="n">
-        <v>45.20180952380952</v>
+        <v>44.94800000000001</v>
       </c>
       <c r="C59" t="n">
-        <v>77.08465829725831</v>
+        <v>76.97999999999996</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>3.619966721945818</v>
+        <v>3.72507462686566</v>
       </c>
       <c r="B60" t="n">
-        <v>1.521501198801199</v>
+        <v>1.54</v>
       </c>
       <c r="C60" t="n">
-        <v>6.362914285714287</v>
+        <v>6.380000000000003</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>71.3797171652559</v>
+        <v>71.47160199004971</v>
       </c>
       <c r="B61" t="n">
-        <v>55.04252876283989</v>
+        <v>55.45199999999997</v>
       </c>
       <c r="C61" t="n">
-        <v>83.32615670995672</v>
+        <v>83.59199999999997</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>64.15373006181211</v>
+        <v>64.05548258706457</v>
       </c>
       <c r="B62" t="n">
-        <v>46.5463968253968</v>
+        <v>46.27199999999999</v>
       </c>
       <c r="C62" t="n">
-        <v>77.61645182595186</v>
+        <v>78.30400000000002</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>72.46348969869258</v>
+        <v>72.34991044776115</v>
       </c>
       <c r="B63" t="n">
-        <v>56.67795860685208</v>
+        <v>56.66799999999999</v>
       </c>
       <c r="C63" t="n">
-        <v>84.78782857142856</v>
+        <v>84.88799999999996</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>3.620533886124923</v>
+        <v>3.730149253731335</v>
       </c>
       <c r="B64" t="n">
-        <v>1.597390881340881</v>
+        <v>1.647999999999999</v>
       </c>
       <c r="C64" t="n">
-        <v>6.318914285714285</v>
+        <v>6.319999999999999</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>69.12839942746581</v>
+        <v>69.13751243781088</v>
       </c>
       <c r="B65" t="n">
-        <v>52.35364759227702</v>
+        <v>52.06400000000002</v>
       </c>
       <c r="C65" t="n">
-        <v>82.57627359307362</v>
+        <v>82.65200000000003</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>53.73511873963508</v>
+        <v>53.74975124378098</v>
       </c>
       <c r="B66" t="n">
-        <v>36.26381616161613</v>
+        <v>36.44400000000002</v>
       </c>
       <c r="C66" t="n">
-        <v>67.83282727272731</v>
+        <v>68.32399999999996</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>51.38887680644391</v>
+        <v>51.38628855721389</v>
       </c>
       <c r="B67" t="n">
-        <v>34.69917012987013</v>
+        <v>34.45199999999999</v>
       </c>
       <c r="C67" t="n">
-        <v>68.59197200577202</v>
+        <v>67.82400000000005</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>5.349008355409088</v>
+        <v>5.384318407960186</v>
       </c>
       <c r="B68" t="n">
-        <v>2.803831168831169</v>
+        <v>2.735999999999999</v>
       </c>
       <c r="C68" t="n">
-        <v>8.753692063492061</v>
+        <v>8.588000000000001</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>74.90955735633412</v>
+        <v>74.76465671641787</v>
       </c>
       <c r="B69" t="n">
-        <v>58.60179396804597</v>
+        <v>58.60799999999998</v>
       </c>
       <c r="C69" t="n">
-        <v>86.97983248263246</v>
+        <v>87.21999999999998</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>4.982210514885877</v>
+        <v>4.953870646766164</v>
       </c>
       <c r="B70" t="n">
-        <v>2.291648412698413</v>
+        <v>2.264000000000001</v>
       </c>
       <c r="C70" t="n">
-        <v>7.56981111111111</v>
+        <v>7.499999999999997</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>20.46425870646749</v>
+        <v>20.46165174129339</v>
       </c>
       <c r="B71" t="n">
-        <v>10.81813333333334</v>
+        <v>10.652</v>
       </c>
       <c r="C71" t="n">
-        <v>31.75999999999999</v>
+        <v>31.66799999999999</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>25.55913432835806</v>
+        <v>25.58720398009934</v>
       </c>
       <c r="B72" t="n">
-        <v>13.90965238095237</v>
+        <v>13.992</v>
       </c>
       <c r="C72" t="n">
-        <v>38.68466666666664</v>
+        <v>38.58399999999997</v>
       </c>
     </row>
   </sheetData>
